--- a/pandas/tests/io/data/test5.xlsx
+++ b/pandas/tests/io/data/test5.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamayd/clones/pandas/pandas/tests/io/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44327F6C-2D7D-5648-9829-26AA06FCD094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25600" windowHeight="17840"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,6 +86,82 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00DD0806"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -335,7 +420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -349,44 +434,39 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>